--- a/allFrambda20-4s_900.xlsx
+++ b/allFrambda20-4s_900.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ba3ab8c13100321/デスクトップ/traffic-simulation-de/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4605EE4A88C4E54FCF0981A7F98E4BE94CD30C08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE2AF773-7486-448F-BB9E-1C7B2C2092D5}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4605EE4A88C4E54FCF0981A7F98E4BE94CD30C08" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB9A2AFD-916D-4D43-889F-90EA700A1E7F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1819,16 +1819,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>6</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1854,6 +1854,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
